--- a/Visuals/Tables/Supplementary Table 4.xlsx
+++ b/Visuals/Tables/Supplementary Table 4.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="169">
     <fill>
       <patternFill/>
     </fill>
@@ -44,32 +44,662 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FAF5F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7B6CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A8B7CF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004678BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9EFEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009FB0CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004276BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007997C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBD1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00517FBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087A0C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006A8DBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDD3DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007695C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCDEE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEEDF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBC5D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005B84BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EED7D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5C0D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1EFF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0BDD2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093A8C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006087BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007192C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003B73BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AAB8D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7C2D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9EEED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007393C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5CDDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7CEDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DADDE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAF4F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007B98C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00507EBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2BED3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009DAFCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFBCD1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAD0DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2B2CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEB1AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8CFDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002369BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7E7EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003470BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D08F8D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7DAE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005983BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0B7B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8CAC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFC8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4E3E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006489BE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003F75BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003972BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5D9E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADBBD1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDC6D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5B5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3F1F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C2CADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9CBC9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2E3EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8F4F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098ACC9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00809BC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2E0DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFE1E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6F3F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00859EC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00698CBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDE0E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2D7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008AA2C5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECD3D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097ABC9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9DCE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3BFD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3CBDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8EDEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005380BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6E6EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3BFBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0D5E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A3B4CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F0F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAF5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00296CBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFD4E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B34D4E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2DFDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00266ABD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D4D8E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0097ABC9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008AA2C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3B4CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7B6CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00829CC3"/>
+        <fgColor rgb="00DAA8A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFDAD8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00678BBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BAECB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6E8E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAF2F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BA3C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009AADCA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092A7C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004C7CBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007E9AC2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007594C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3E2E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006E90BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004A7BBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002F6EBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9E9ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090A6C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDD5D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D69F9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1DDDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B44F4F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EACFCD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFEEF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2BCB9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7EBEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003D74BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7EAE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE8B88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1B9B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7A29F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00658ABE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAF3F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAF3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006F91BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008DA4C6"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,72 +709,172 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F0DBDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5F2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7C8C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECEBEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003671BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4E5EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD8987"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAF0EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BAC4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D49896"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5C3C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00839DC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5E5E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBD0CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="008FA5C7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBC5D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0C9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7C2D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0D5E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9DCE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFBCD1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092A7C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007192C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006489BE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0B7B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4E3E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9EFEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5C3C1"/>
+        <fgColor rgb="00A0B1CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006C8EBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004879BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9373B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1E2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1BAB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004E7DBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005782BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005C85BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095A9C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005581BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5C2C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7C7C5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6C5C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EACDCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBEAEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECD2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C6DBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFB4B2"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,23 +893,23 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
+      <left/>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left/>
       <right style="thin"/>
-      <top/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left/>
       <right style="thin"/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -187,32 +917,178 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="144" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="145" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="138" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="143" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="134" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="139" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="152" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="156" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="159" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="140" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="146" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="150" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="167" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="157" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="137" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="141" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="153" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="155" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="142" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="160" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="151" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="154" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="163" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="164" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="133" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="135" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="158" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="149" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="126" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="127" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="161" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="165" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="147" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="166" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -578,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,180 +1463,2580 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NME</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CLASSIC</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>JULES</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>LPJ-GUESS-SIMFIRE-BLAZE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LPJ-GUESS-SPITFIRE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ORCHIDEE-MICT-SPITFIRE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>SSiB4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>VISIT</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FireCCI5.1</t>
+          <t>NME</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>$NME_1$</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>1.17</v>
+          <t>Rank.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Ann.</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Rank.</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Ann.</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Rank.</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Ann.</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Rank.</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Ann.</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Rank.</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Ann.</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Rank.</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Ann.</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Rank.</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Ann.</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>Rank.</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Ann.</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>$NME_3$</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="D3" s="9" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G3" s="12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I3" s="13" t="n">
-        <v>1.06</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GFED5</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>$NME_1$</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="n">
+          <t>NWN</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N4" s="13" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P4" s="15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q4" s="16" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NEN</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I5" s="20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L5" s="23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M5" s="24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N5" s="25" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O5" s="26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" s="27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q5" s="28" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>WNA</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F6" s="31" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G6" s="32" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H6" s="31" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J6" s="33" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K6" s="34" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L6" s="35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M6" s="36" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N6" s="37" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O6" s="30" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P6" s="38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q6" s="39" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CNA</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G7" s="38" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H7" s="41" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I7" s="42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J7" s="43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K7" s="44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L7" s="16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" s="45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N7" s="45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O7" s="46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P7" s="47" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q7" s="48" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ENA</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D8" s="49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E8" s="50" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F8" s="51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J8" s="52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K8" s="53" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L8" s="54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M8" s="55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N8" s="11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O8" s="56" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P8" s="57" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q8" s="58" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>NCA</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D9" s="59" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E9" s="60" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="41" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G9" s="61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J9" s="40" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L9" s="23" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M9" s="62" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N9" s="63" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O9" s="60" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="64" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D10" s="65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="41" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F10" s="66" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G10" s="49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H10" s="67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I10" s="68" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J10" s="69" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K10" s="70" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L10" s="50" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M10" s="71" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N10" s="72" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O10" s="26" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P10" s="73" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q10" s="27" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="74" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E11" s="75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F11" s="49" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G11" s="76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H11" s="77" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I11" s="78" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J11" s="79" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K11" s="80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L11" s="24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M11" s="81" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N11" s="82" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O11" s="35" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P11" s="83" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q11" s="84" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>NWS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D12" s="85" t="n">
         <v>0.71</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="E12" s="86" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F12" s="87" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G12" s="88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H12" s="89" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I12" s="90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K12" s="91" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L12" s="23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M12" s="92" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N12" s="93" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O12" s="94" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P12" s="43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q12" s="95" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>NSA</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F13" s="46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G13" s="98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H13" s="99" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I13" s="53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J13" s="73" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K13" s="51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L13" s="100" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M13" s="54" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O13" s="101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P13" s="102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="22" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>NES</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D14" s="103" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E14" s="30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F14" s="99" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G14" s="65" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H14" s="104" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I14" s="105" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K14" s="106" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L14" s="81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M14" s="107" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N14" s="37" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O14" s="108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P14" s="18" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q14" s="109" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D15" s="35" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E15" s="30" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F15" s="107" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G15" s="106" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H15" s="110" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I15" s="76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J15" s="50" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K15" s="111" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L15" s="80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="112" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="N15" s="111" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O15" s="30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P15" s="113" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q15" s="62" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>SWS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D16" s="38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E16" s="114" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F16" s="26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G16" s="93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I16" s="55" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J16" s="51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K16" s="98" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L16" s="115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M16" s="116" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N16" s="117" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O16" s="40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P16" s="118" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q16" s="102" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SES</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D17" s="119" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E17" s="110" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F17" s="115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G17" s="120" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H17" s="100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="121" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J17" s="59" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K17" s="31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L17" s="122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M17" s="106" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N17" s="58" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O17" s="72" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P17" s="38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q17" s="67" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SSA</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D18" s="97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E18" s="123" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F18" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H18" s="62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I18" s="13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J18" s="48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K18" s="74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L18" s="61" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M18" s="99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O18" s="107" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P18" s="124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q18" s="87" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>NEU</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D19" s="93" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F19" s="26" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G19" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I19" s="115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L19" s="126" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M19" s="114" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N19" s="127" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O19" s="116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" s="27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q19" s="76" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>WCE</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D20" s="75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F20" s="122" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G20" s="71" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H20" s="99" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I20" s="129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J20" s="130" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K20" s="131" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L20" s="85" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M20" s="86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N20" s="132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O20" s="47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P20" s="52" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q20" s="118" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>EEU</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E21" s="133" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F21" s="134" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G21" s="135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H21" s="136" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I21" s="70" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J21" s="58" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K21" s="137" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L21" s="11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M21" s="115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O21" s="138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q21" s="133" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>MED</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D22" s="139" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E22" s="137" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F22" s="9" t="n">
         <v>0.72</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="G22" s="26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H22" s="140" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I22" s="117" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J22" s="134" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K22" s="98" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L22" s="19" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M22" s="16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N22" s="119" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O22" s="18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P22" s="89" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>SAH</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D23" s="51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E23" s="28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F23" s="50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="141" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H23" s="123" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I23" s="142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J23" s="50" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K23" s="141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L23" s="45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M23" s="143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N23" s="99" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O23" s="116" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P23" s="20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q23" s="95" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>WAF</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E24" s="31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="53" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G24" s="140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="144" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I24" s="132" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J24" s="82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L24" s="85" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M24" s="15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="N24" s="140" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O24" s="14" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P24" s="18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Q24" s="49" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CAF</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D25" s="76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E25" s="146" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F25" s="105" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G25" s="121" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H25" s="147" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I25" s="66" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J25" s="145" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K25" s="109" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L25" s="129" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M25" s="129" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N25" s="103" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O25" s="63" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P25" s="44" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q25" s="108" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>NEAF</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D26" s="123" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E26" s="75" t="n">
         <v>0.77</v>
       </c>
-      <c r="G4" s="17" t="n">
+      <c r="F26" s="109" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G26" s="103" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H26" s="103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="105" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J26" s="148" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K26" s="115" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M26" s="149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N26" s="99" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O26" s="21" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P26" s="126" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q26" s="142" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>SEAF</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D27" s="19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E27" s="30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F27" s="132" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G27" s="30" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H27" s="144" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I27" s="150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J27" s="17" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K27" s="150" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L27" s="13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M27" s="140" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N27" s="103" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O27" s="30" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="P27" s="27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q27" s="151" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>WSAF</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="147" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E28" s="152" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F28" s="68" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G28" s="134" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H28" s="152" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I28" s="132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J28" s="79" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K28" s="46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="L28" s="28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N28" s="65" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P28" s="131" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q28" s="70" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ESAF</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D29" s="151" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E29" s="24" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F29" s="127" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G29" s="73" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H29" s="153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J29" s="25" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K29" s="142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L29" s="27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="154" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O29" s="62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P29" s="114" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q29" s="118" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D30" s="111" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E30" s="132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F30" s="13" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G30" s="101" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H30" s="103" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I30" s="81" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J30" s="99" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K30" s="102" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L30" s="155" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N30" s="107" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O30" s="22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P30" s="130" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q30" s="48" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RAR</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D31" s="53" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="113" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F31" s="134" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="127" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H31" s="136" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I31" s="145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J31" s="79" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K31" s="100" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L31" s="63" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M31" s="79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N31" s="61" t="n">
         <v>0.73</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="O31" s="5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P31" s="133" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q31" s="24" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>WSB</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D32" s="85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F32" s="80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G32" s="46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H32" s="156" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I32" s="142" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J32" s="11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L32" s="157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M32" s="50" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N32" s="109" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O32" s="25" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P32" s="16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q32" s="13" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>ESB</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D33" s="101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E33" s="156" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F33" s="130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G33" s="134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H33" s="158" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I33" s="47" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J33" s="114" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K33" s="23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L33" s="45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M33" s="130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N33" s="69" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O33" s="103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P33" s="8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q33" s="100" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RFE</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D34" s="159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E34" s="126" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F34" s="57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G34" s="115" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H34" s="160" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I34" s="161" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J34" s="149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M34" s="143" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N34" s="75" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O34" s="126" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P34" s="138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q34" s="51" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>WCA</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D35" s="69" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F35" s="140" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G35" s="43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H35" s="21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I35" s="62" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J35" s="121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K35" s="127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L35" s="112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M35" s="94" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N35" s="33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O35" s="75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P35" s="162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q35" s="71" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>ECA</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D36" s="62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F36" s="97" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G36" s="133" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H36" s="85" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I36" s="38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J36" s="68" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K36" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M36" s="27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N36" s="18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O36" s="73" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P36" s="48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q36" s="48" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>TIB</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D37" s="157" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E37" s="35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F37" s="80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G37" s="53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H37" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="127" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J37" s="97" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K37" s="59" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L37" s="27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M37" s="140" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N37" s="26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O37" s="126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" s="52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q37" s="25" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D38" s="130" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E38" s="145" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F38" s="162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G38" s="87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H38" s="73" t="n">
         <v>0.62</v>
       </c>
-      <c r="I4" s="19" t="n">
+      <c r="I38" s="10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J38" s="45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K38" s="12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L38" s="18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M38" s="28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N38" s="38" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O38" s="132" t="n">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>$NME_3$</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E5" s="20" t="n">
+      <c r="P38" s="93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q38" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>ARP</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D39" s="143" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F39" s="71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G39" s="85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H39" s="98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I39" s="143" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J39" s="84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K39" s="51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L39" s="142" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M39" s="98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N39" s="71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O39" s="12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P39" s="71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D40" s="66" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E40" s="138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G40" s="55" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H40" s="65" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I40" s="163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J40" s="80" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K40" s="15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="L40" s="25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N40" s="151" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O40" s="164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P40" s="145" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q40" s="115" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D41" s="66" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E41" s="152" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F41" s="101" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G41" s="30" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H41" s="80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I41" s="119" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J41" s="104" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K41" s="144" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L41" s="115" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M41" s="58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N41" s="89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O41" s="82" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P41" s="165" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q41" s="82" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>NAU</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D42" s="106" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F42" s="89" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G42" s="158" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I42" s="78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J42" s="25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K42" s="122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L42" s="132" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M42" s="38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N42" s="158" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O42" s="18" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P42" s="68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q42" s="135" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D43" s="80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E43" s="29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F43" s="162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G43" s="123" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H43" s="97" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I43" s="81" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J43" s="125" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K43" s="56" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L43" s="85" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M43" s="30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N43" s="6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O43" s="152" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P43" s="54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q43" s="48" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>EAU</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D44" s="58" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E44" s="81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F44" s="79" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H44" s="59" t="n">
         <v>0.83</v>
       </c>
-      <c r="F5" s="21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G5" s="11" t="n">
+      <c r="I44" s="166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J44" s="80" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K44" s="167" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L44" s="109" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M44" s="157" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="N44" s="39" t="n">
         <v>0.82</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="O44" s="142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P44" s="6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q44" s="4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D45" s="134" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E45" s="18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G45" s="123" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H45" s="89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I45" s="97" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J45" s="97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K45" s="85" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L45" s="10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M45" s="76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N45" s="26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O45" s="113" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P45" s="27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q45" s="14" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>NZ</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D46" s="18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F46" s="131" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G46" s="136" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H46" s="55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I46" s="24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J46" s="40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K46" s="127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L46" s="61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M46" s="136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O46" s="130" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P46" s="168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q46" s="101" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D47" s="50" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E47" s="74" t="n">
         <v>0.73</v>
       </c>
-      <c r="I5" s="22" t="n">
-        <v>1.14</v>
+      <c r="F47" s="123" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G47" s="109" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I47" s="157" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J47" s="14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K47" s="22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L47" s="43" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M47" s="71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="N47" s="147" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O47" s="9" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="P47" s="22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q47" s="54" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="8">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
